--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651752.7500233164</v>
+        <v>675631.9506927772</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12039896.73536342</v>
+        <v>12101176.53581382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17448021.4517666</v>
+        <v>17457657.16194741</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5139634.237419588</v>
+        <v>5126264.800642772</v>
       </c>
     </row>
     <row r="11">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.420437099919792</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>5.015883079286307</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.015883079286307</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>5.015883079286307</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>5.015883079286307</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5.015883079286307</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>5.015883079286307</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.386926506382206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.661047017390311</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>3.25758735449362</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4.854127691596929</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.757969933478105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.563798309987936</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1290133605740048</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.725553697677314</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>3.322094034780623</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>4.918634371883932</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>6.450668028700238</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>4.821711455796137</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.192754882892037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>48.53839470985564</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>47.88573667260503</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>38.81022602992167</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>48.53839470985564</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>47.88573667260503</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>38.81022602992167</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>48.53839470985564</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>47.88573667260503</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>38.81022602992167</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>57.00528363976552</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>33.05759916291153</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.49467387524593</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>63.14974329668624</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>50.1510617170307</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4984036797801</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>40.35773477418056</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.76816422111628</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>56.94012537684936</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.0997707735028</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>48.53839470985564</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>49.4984036797801</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>40.42289303709673</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>57.97846399687663</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>69.03270185873156</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.76816422111628</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>56.94012537684936</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.0997707735028</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>50.08590345411454</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>49.49840367978008</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>40.42289303709671</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>57.97846399687661</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.76816422111628</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>4.546723805678885</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.0997707735028</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>50.08590345411454</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>49.49840367978008</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>40.42289303709671</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>57.97846399687661</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.49467387524593</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>46.65879185616461</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.0997707735028</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>48.53839470985564</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>49.4984036797801</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>40.42289303709673</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>57.97846399687663</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>69.03270185873156</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>32.99244089999537</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>4.611882068595037</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.55983213816208</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>63.14974329668624</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>50.1510617170307</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>49.4984036797801</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>40.35773477418056</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>56.94012537684936</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>33.05759916291152</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.55983213816208</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>63.14974329668624</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>50.1510617170307</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>47.88573667260503</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>38.81022602992167</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>57.91330573396046</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>69.09786012164771</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>32.99244089999537</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>4.611882068595037</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.55983213816208</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>50.1510617170307</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>49.4984036797801</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>40.42289303709673</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>69.03270185873156</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.15549721394122</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>55.39261663259046</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>31.44493215573647</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
-        <v>2.999215061419989</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.94716513098703</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>45.04612484898956</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.48710376632775</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.38765289585164</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>25.97700908159185</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.688953719806079</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.55245155569327</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>61.53707628951118</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>48.53839470985564</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>47.88573667260503</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>38.81022602992167</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>56.36579698970156</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>67.48519311447266</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3588981658848</v>
+        <v>14.43656122057276</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1211746563055</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>353.0703746135079</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>380.509932972342</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.6252716488785</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>145.8323985574637</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>104.1244708456276</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
-        <v>231.1879201422502</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>204.0700287701293</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>165.8263839987081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>147.0028060110373</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4508352436415</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>149.5667028063367</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
-        <v>326.3318213702151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>347.628301710238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>368.118433671294</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.6252716488785</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>156.2246433554812</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>224.2831392135072</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
-        <v>231.1879201422502</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>250.0823161537446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.2193131747622</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>284.6746833906863</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
-        <v>250.7172062239082</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>284.910331329416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>363.8524546710877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>215.8154082685392</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>347.628301710238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>368.118433671294</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.0380970795885</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>103.9322409383723</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>55.72593849928302</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>250.0823161537446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>165.8263839987081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>136.3721420623033</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>284.910331329416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>224.0969883818621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>380.3177030650867</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>249.6294057880233</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>347.628301710238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>368.3106635785492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>164.9205166426923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.2303269868438</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>55.53370859202775</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>204.1603181963024</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>50.87753280636759</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>212.2825037476436</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>223.851403995122</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
-        <v>250.524976316653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>381.1211746563055</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>353.0703746135079</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>380.509932972342</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>66.92502280267109</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>135.0380970795885</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>55.53370859202775</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>195.7597806470552</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>224.4753691207625</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.2193131747622</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>147.0028060110373</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0135255466494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>212.2825037476436</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.3953190999835</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>324.794492158908</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>215.8154082685392</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
-        <v>326.1395914629599</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>55.53370859202775</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>195.7597806470552</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
-        <v>231.1879201422502</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>204.3525481035577</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>165.8263839987081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>284.6746833906863</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
-        <v>250.524976316653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>224.0969883818621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>380.3177030650867</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.2633787345364</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>215.8154082685392</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
-        <v>326.3318213702151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>164.9205166426923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>146.024628464719</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
-        <v>231.1879201422502</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>250.0823161537446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25549,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>165.6341540914528</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.0028060110373</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>144.8212956393941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>50.87753280636759</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.3953190999835</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>158.947318907217</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
-        <v>326.1395914629599</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>347.8205316174932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>164.9205166426923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>250.0823161537446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>204.1603181963024</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.2622586773846</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.2193131747622</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>165.8263839987081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>284.910331329416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9719863449197</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0079861071586</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>326.2149292588279</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>160.5599859143921</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.53768980984616</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>179.5159218769809</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4280752757143</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2420727951984</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6507640867636</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5449079455474</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>65.54526596497071</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.14637559920281</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>158.8155865479026</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3724476542302</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8958062206823</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4101984502496</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0635022508166</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>137.9848090694783</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>52.29796990628738</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.52956192883726</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1793698135118</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8951707548186</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.464071002297</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2873503978613</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>901286.615162163</v>
+        <v>901279.8149850945</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>291710.1890583208</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>291710.1890583208</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>291710.1890583208</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>293035.1965314033</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>293035.1965314033</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>293035.1965314032</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>293035.1965314033</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>293035.1965314033</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>293035.1965314032</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>293035.1965314032</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>293035.1965314032</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>291710.1890583208</v>
+        <v>291015.1886728273</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660752</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532578.4544140053</v>
+        <v>532574.4361275556</v>
       </c>
       <c r="D2" t="n">
         <v>532583.8658157185</v>
       </c>
       <c r="E2" t="n">
-        <v>155519.0276749867</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="F2" t="n">
-        <v>155519.0276749867</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="G2" t="n">
-        <v>155519.0276749867</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="H2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="I2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="J2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="K2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="L2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="M2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="N2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="O2" t="n">
-        <v>156112.9534527119</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="P2" t="n">
-        <v>155519.0276749867</v>
+        <v>155706.5393300899</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>213791.1722776066</v>
+        <v>196199.5392125274</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>38825.56230004797</v>
       </c>
       <c r="E3" t="n">
-        <v>49226.92826114806</v>
+        <v>52640.43902278915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>435.1120725388957</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>385783.8405692248</v>
+        <v>392517.3300834397</v>
       </c>
       <c r="D4" t="n">
-        <v>377068.1104903041</v>
+        <v>377068.1104903042</v>
       </c>
       <c r="E4" t="n">
-        <v>28524.14222372796</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="F4" t="n">
-        <v>28524.14222372796</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="G4" t="n">
-        <v>28524.14222372796</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="H4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="I4" t="n">
-        <v>28845.44296114513</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="J4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="K4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="L4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="M4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="N4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="O4" t="n">
-        <v>28845.44296114512</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="P4" t="n">
-        <v>28524.14222372796</v>
+        <v>27511.81442190543</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38745.80483114667</v>
+        <v>38324.65750133768</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>7021.113197604539</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>7021.113197604539</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>7021.113197604539</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>7119.163351640783</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>7021.113197604539</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434392</v>
+        <v>31286.06023434384</v>
       </c>
       <c r="C6" t="n">
-        <v>-105742.3632639727</v>
+        <v>-94467.09066974916</v>
       </c>
       <c r="D6" t="n">
-        <v>93922.02383871679</v>
+        <v>77377.23166848568</v>
       </c>
       <c r="E6" t="n">
-        <v>70746.8439925061</v>
+        <v>68440.54851959157</v>
       </c>
       <c r="F6" t="n">
-        <v>119973.7722536542</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="G6" t="n">
-        <v>119973.7722536542</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="H6" t="n">
-        <v>119713.2350673871</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="I6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="J6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="K6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="L6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="M6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="N6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="O6" t="n">
-        <v>120148.347139926</v>
+        <v>121080.9875423807</v>
       </c>
       <c r="P6" t="n">
-        <v>119973.7722536542</v>
+        <v>121080.9875423807</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>215.4613532723708</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>322.0694127341532</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26807,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>215.4613532723708</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>45.33503924509404</v>
       </c>
       <c r="E3" t="n">
-        <v>61.27302021668834</v>
+        <v>65.52183527169944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27631,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>330.604074139081</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>177.082627974293</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>107.5302742460797</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>109.9089782155521</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>99.07729936584792</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>78.25325494471122</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>74.85906191710427</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>84.1572502712539</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>106.6757618768434</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>128.7683945450355</v>
       </c>
       <c r="R5" t="n">
-        <v>156.2970892917925</v>
+        <v>161.1755911508334</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>189.282077273907</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>219.3041628346849</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2763588042715</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8800719882474</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>107.7595395204044</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13536774255608</v>
+        <v>83.56604393218763</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>83.05222090402387</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>63.00520648918092</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>37.92782983884855</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>24.70759638857625</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.80734616165108</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>32.33084792589446</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>45.47670553911817</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>80.82340403282265</v>
       </c>
       <c r="R6" t="n">
-        <v>114.3252943440434</v>
+        <v>116.9052500307217</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>163.0748802443238</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>198.2967194150357</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9108922668325</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.602442491902</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>158.772726548417</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>143.7661117038976</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>99.52586497383501</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>83.87233858330754</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>77.11984068424891</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>78.02086403817081</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>68.22880742205582</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>83.53861844071457</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>90.7362361157768</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>118.9703372853179</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>159.8233609954458</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>217.2454600988881</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>226.2854773620845</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2978364364969</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.8661762945622939</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>8.870727976686096</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>33.39326159611287</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>73.51563028060656</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>110.1808728294285</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>136.6891156041393</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>152.0929782825615</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>154.5540016794866</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>145.9409611504328</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>124.5572338784262</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>93.53729532941399</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>54.40994666329875</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>19.73799231233829</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>3.791686729446444</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.0692941035649835</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.4634451749632126</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>4.475904716092081</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>15.95633606781237</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>43.78540576264283</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>74.83623248517807</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>100.6265499410256</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>117.4264375334421</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>120.5343659216822</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>110.26539651855</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>88.49770187521207</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>59.15837005319887</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>28.77425393324229</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>8.608290859514053</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>1.868009279785931</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03048981414231663</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.3885368665567341</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>3.454445959022602</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>11.6843632233607</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>27.46955646556111</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>45.14091958722783</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>57.76483559698938</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>60.90491990943424</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>59.45673704317737</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>54.91792001112822</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>46.99176793337081</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>32.53466434412799</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>17.4700303817237</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>6.771137938084174</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>1.660112066196955</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02119291999400371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
-        <v>140.1018885241331</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>144.2089114516195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
-        <v>140.1018885241331</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>144.2089114516195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
-        <v>140.1018885241331</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>144.2089114516195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
-        <v>140.1670467870492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>144.1437531887033</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
-        <v>140.1018885241331</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>144.2089114516195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
-        <v>140.1670467870492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>144.1437531887033</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
-        <v>140.1018885241331</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>144.2089114516195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>231.025730603766</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
-        <v>140.1018885241331</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>143.7467009291934</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>132.9543790905084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>144.2089114516195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.294751407976494</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.25987285693927</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>49.91590365601384</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>109.8904073127451</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>164.6972344123901</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>204.3214828142508</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>227.3470181658527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>218.1510462906997</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>186.18687090628</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>139.8185861081217</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>81.33142813130353</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>29.50414770926439</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.667774288417106</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1035801126381195</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6927530764470464</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.690536290949107</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>23.85136688644436</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>65.44997377081505</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>111.8644298927671</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>132.2854536945242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.42932253032825</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>43.01145855344032</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>12.86758455593526</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.792281040591384</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04557586029256886</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5807809082091285</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.163670256622983</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>17.46566585777998</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>41.06121021038539</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>67.4761818810242</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>86.34628157138265</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>91.04004727500002</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>88.87531843531153</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>82.09074146214122</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>70.24281093467495</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.63248132285712</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>26.11402156365772</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.12142728215363</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.481518425984458</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03167895862958887</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36522,16 +36524,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36756,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36993,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37078,16 +37080,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,16 +37235,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37309,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37713,10 +37715,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37941,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.61266700717506</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.547508744258896</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
